--- a/data/reword.xlsx
+++ b/data/reword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Python-Rush\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PythonProjects\MicroProjects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F459EB80-75C4-4766-ABD0-61F392B0552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9DBC93-26A3-4696-99D2-7954AA112D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13365" yWindow="1545" windowWidth="14280" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
   <si>
     <t>English</t>
   </si>
@@ -397,6 +397,150 @@
   </si>
   <si>
     <t>ссориться</t>
+  </si>
+  <si>
+    <t>gotta (I have got to)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мне нужно, я вынужден </t>
+  </si>
+  <si>
+    <t>to part ways</t>
+  </si>
+  <si>
+    <t>Закончиться, разойтись, расстаться</t>
+  </si>
+  <si>
+    <t>sick and tired</t>
+  </si>
+  <si>
+    <t>Mockingjay</t>
+  </si>
+  <si>
+    <t>сойка-пересмешника</t>
+  </si>
+  <si>
+    <t>Откровенно достало</t>
+  </si>
+  <si>
+    <t>застегнуть (ремень)</t>
+  </si>
+  <si>
+    <t>Застегнуть молнию</t>
+  </si>
+  <si>
+    <t>to twist</t>
+  </si>
+  <si>
+    <t>сделать человеку плохо</t>
+  </si>
+  <si>
+    <t>to fasten</t>
+  </si>
+  <si>
+    <t>to zip</t>
+  </si>
+  <si>
+    <t>Притормозить (про человека)</t>
+  </si>
+  <si>
+    <t>to let up</t>
+  </si>
+  <si>
+    <t>Ослабевать, сходить на нет</t>
+  </si>
+  <si>
+    <t>to slow up (down)</t>
+  </si>
+  <si>
+    <t>sacrilegious</t>
+  </si>
+  <si>
+    <t>кощунственный</t>
+  </si>
+  <si>
+    <t>take forever</t>
+  </si>
+  <si>
+    <t>Очень долго (время)</t>
+  </si>
+  <si>
+    <t>run-in</t>
+  </si>
+  <si>
+    <t>схватка</t>
+  </si>
+  <si>
+    <t>to detract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уменьшать </t>
+  </si>
+  <si>
+    <t>detractors</t>
+  </si>
+  <si>
+    <t>недоброжелатели</t>
+  </si>
+  <si>
+    <t>pitchfork</t>
+  </si>
+  <si>
+    <t>вилы</t>
+  </si>
+  <si>
+    <t>corkscrew</t>
+  </si>
+  <si>
+    <t>штопор</t>
+  </si>
+  <si>
+    <t>revenge</t>
+  </si>
+  <si>
+    <t>расплата, месть</t>
+  </si>
+  <si>
+    <t>leeches</t>
+  </si>
+  <si>
+    <t>пиявки</t>
+  </si>
+  <si>
+    <t>flip the bird</t>
+  </si>
+  <si>
+    <t>Поднять средний палец</t>
+  </si>
+  <si>
+    <t>Lip-syncs</t>
+  </si>
+  <si>
+    <t>Липсинг</t>
+  </si>
+  <si>
+    <t>hardly</t>
+  </si>
+  <si>
+    <t>Едва ли</t>
+  </si>
+  <si>
+    <t>prolly</t>
+  </si>
+  <si>
+    <t>возможно (prodadly)</t>
+  </si>
+  <si>
+    <t>to fetch</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>пульт</t>
+  </si>
+  <si>
+    <t>пойди принеси (часто говорят собакам)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,18 +858,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C65"/>
+  <dimension ref="B3:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -733,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -741,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>98</v>
       </c>
@@ -749,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>99</v>
       </c>
@@ -757,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -765,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -773,7 +918,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -781,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -789,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -797,7 +942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -805,7 +950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>95</v>
       </c>
@@ -813,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -821,7 +966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -829,7 +974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -837,7 +982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -845,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -853,7 +998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -861,7 +1006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -869,7 +1014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -877,7 +1022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -885,7 +1030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -893,7 +1038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -901,7 +1046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -909,7 +1054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -917,7 +1062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>41</v>
       </c>
@@ -925,7 +1070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -933,7 +1078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -941,7 +1086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -949,7 +1094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -957,7 +1102,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>51</v>
       </c>
@@ -965,7 +1110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>94</v>
       </c>
@@ -973,7 +1118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>93</v>
       </c>
@@ -981,7 +1126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>55</v>
       </c>
@@ -989,7 +1134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>57</v>
       </c>
@@ -997,7 +1142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>59</v>
       </c>
@@ -1005,7 +1150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -1013,7 +1158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>63</v>
       </c>
@@ -1021,7 +1166,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -1029,7 +1174,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>67</v>
       </c>
@@ -1037,7 +1182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>69</v>
       </c>
@@ -1045,7 +1190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>71</v>
       </c>
@@ -1053,7 +1198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>73</v>
       </c>
@@ -1061,7 +1206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -1069,7 +1214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>92</v>
       </c>
@@ -1077,7 +1222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>90</v>
       </c>
@@ -1085,7 +1230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>89</v>
       </c>
@@ -1093,7 +1238,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>88</v>
       </c>
@@ -1101,7 +1246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>80</v>
       </c>
@@ -1109,7 +1254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>82</v>
       </c>
@@ -1117,7 +1262,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>84</v>
       </c>
@@ -1125,7 +1270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>86</v>
       </c>
@@ -1133,7 +1278,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>100</v>
       </c>
@@ -1141,7 +1286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>102</v>
       </c>
@@ -1149,7 +1294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>104</v>
       </c>
@@ -1157,7 +1302,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>106</v>
       </c>
@@ -1165,7 +1310,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>108</v>
       </c>
@@ -1173,7 +1318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>110</v>
       </c>
@@ -1181,7 +1326,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>112</v>
       </c>
@@ -1189,7 +1334,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>116</v>
       </c>
@@ -1197,7 +1342,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>114</v>
       </c>
@@ -1205,7 +1350,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>118</v>
       </c>
@@ -1213,7 +1358,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>120</v>
       </c>
@@ -1221,12 +1366,204 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>122</v>
       </c>
       <c r="C65" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/reword.xlsx
+++ b/data/reword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PythonProjects\MicroProjects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9DBC93-26A3-4696-99D2-7954AA112D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2232F63D-5ADF-4E79-B759-C00521222194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13365" yWindow="1545" windowWidth="14280" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="14280" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="304">
   <si>
     <t>English</t>
   </si>
@@ -333,9 +333,6 @@
     <t>нуждающийся</t>
   </si>
   <si>
-    <t>humiliate</t>
-  </si>
-  <si>
     <t>унижать</t>
   </si>
   <si>
@@ -541,6 +538,405 @@
   </si>
   <si>
     <t>пойди принеси (часто говорят собакам)</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>сокращать, уменьшать</t>
+  </si>
+  <si>
+    <t>to be based on</t>
+  </si>
+  <si>
+    <t>базироваться</t>
+  </si>
+  <si>
+    <t>differ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отличаться </t>
+  </si>
+  <si>
+    <t>трястись (от страха)</t>
+  </si>
+  <si>
+    <t>to tremble with</t>
+  </si>
+  <si>
+    <t>to exclaimed</t>
+  </si>
+  <si>
+    <t>восклицать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">разработать </t>
+  </si>
+  <si>
+    <t>entrance</t>
+  </si>
+  <si>
+    <t>подъезд</t>
+  </si>
+  <si>
+    <t>to nod</t>
+  </si>
+  <si>
+    <t>кивать, кивнуть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stamp </t>
+  </si>
+  <si>
+    <t>марка</t>
+  </si>
+  <si>
+    <t>to pollute</t>
+  </si>
+  <si>
+    <t>загрязнять</t>
+  </si>
+  <si>
+    <t>to remark</t>
+  </si>
+  <si>
+    <t>to betray</t>
+  </si>
+  <si>
+    <t>предавать</t>
+  </si>
+  <si>
+    <t>to confess</t>
+  </si>
+  <si>
+    <t>признаться</t>
+  </si>
+  <si>
+    <t>swear to</t>
+  </si>
+  <si>
+    <t>ругаться на кого-то</t>
+  </si>
+  <si>
+    <t>to declare</t>
+  </si>
+  <si>
+    <t>провозглашать, объявлять</t>
+  </si>
+  <si>
+    <t>to subtract</t>
+  </si>
+  <si>
+    <t>вычитать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to mind </t>
+  </si>
+  <si>
+    <t>возражать</t>
+  </si>
+  <si>
+    <t>would you mind</t>
+  </si>
+  <si>
+    <t>не будете против</t>
+  </si>
+  <si>
+    <t>to exceed</t>
+  </si>
+  <si>
+    <t>превышать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eraser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ластик, резинка </t>
+  </si>
+  <si>
+    <t>to attend</t>
+  </si>
+  <si>
+    <t>посещать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syllabus </t>
+  </si>
+  <si>
+    <t>учебный план</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aloud </t>
+  </si>
+  <si>
+    <t>вслух</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watching </t>
+  </si>
+  <si>
+    <t>следить за кем-то</t>
+  </si>
+  <si>
+    <t>blackmail</t>
+  </si>
+  <si>
+    <t>шантаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to dedicate </t>
+  </si>
+  <si>
+    <t>посвящать</t>
+  </si>
+  <si>
+    <t>urgently</t>
+  </si>
+  <si>
+    <t>срочно</t>
+  </si>
+  <si>
+    <t>to envy</t>
+  </si>
+  <si>
+    <t>завидовать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to humiliate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to prescribe </t>
+  </si>
+  <si>
+    <t>прописывать(лекарства), назначать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the pros and cons </t>
+  </si>
+  <si>
+    <t>за и против, плюсы и минусы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">планировать </t>
+  </si>
+  <si>
+    <t>наличка</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>be fed up</t>
+  </si>
+  <si>
+    <t>достать, надоесть</t>
+  </si>
+  <si>
+    <t>to resemble</t>
+  </si>
+  <si>
+    <t>быть похожим</t>
+  </si>
+  <si>
+    <t>take after</t>
+  </si>
+  <si>
+    <t>rub out</t>
+  </si>
+  <si>
+    <t>стирать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">захватывающий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">profoundly </t>
+  </si>
+  <si>
+    <t>основательно, глубоко</t>
+  </si>
+  <si>
+    <t>talkative</t>
+  </si>
+  <si>
+    <t>болтливый, разговорчивый</t>
+  </si>
+  <si>
+    <t>keep in touch</t>
+  </si>
+  <si>
+    <t>быть на связи</t>
+  </si>
+  <si>
+    <t>go off</t>
+  </si>
+  <si>
+    <t>выстрелить, взорваться, уходить</t>
+  </si>
+  <si>
+    <t>with impatience</t>
+  </si>
+  <si>
+    <t>с нетерпением</t>
+  </si>
+  <si>
+    <t>to be expected for</t>
+  </si>
+  <si>
+    <t>to be supposed to</t>
+  </si>
+  <si>
+    <t>ожидается</t>
+  </si>
+  <si>
+    <t>предполагается</t>
+  </si>
+  <si>
+    <t>for tomorrow</t>
+  </si>
+  <si>
+    <t>на завтра (планы)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have nothing </t>
+  </si>
+  <si>
+    <t>нечего (сказать,сделать)</t>
+  </si>
+  <si>
+    <t>making fortune/friends</t>
+  </si>
+  <si>
+    <t>сделать состояние/найти друзей</t>
+  </si>
+  <si>
+    <t>syllable</t>
+  </si>
+  <si>
+    <t>слог</t>
+  </si>
+  <si>
+    <t>thirilling</t>
+  </si>
+  <si>
+    <t>by far</t>
+  </si>
+  <si>
+    <t>безусловно, однозначно</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">знакомый </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to sip </t>
+  </si>
+  <si>
+    <t>пить по чуть-чуть, потягивать</t>
+  </si>
+  <si>
+    <t>bleach</t>
+  </si>
+  <si>
+    <t>отбеливатель, хлорка</t>
+  </si>
+  <si>
+    <t>running for</t>
+  </si>
+  <si>
+    <t>баллотироваться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to confine </t>
+  </si>
+  <si>
+    <t>ограничивать</t>
+  </si>
+  <si>
+    <t>carnation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to decay </t>
+  </si>
+  <si>
+    <t>разлагаться (биологический процесс)</t>
+  </si>
+  <si>
+    <t>гвоздика</t>
+  </si>
+  <si>
+    <t>allergic</t>
+  </si>
+  <si>
+    <t>аллергия</t>
+  </si>
+  <si>
+    <t>to catch flack</t>
+  </si>
+  <si>
+    <t>принимать удар на себя, получать взбучку, быть критикованным</t>
+  </si>
+  <si>
+    <t>to exact</t>
+  </si>
+  <si>
+    <t>требовать</t>
+  </si>
+  <si>
+    <t>aloof</t>
+  </si>
+  <si>
+    <t>замкнутый, отчуждённый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to turn into </t>
+  </si>
+  <si>
+    <t>превращаться</t>
+  </si>
+  <si>
+    <t>to prey</t>
+  </si>
+  <si>
+    <t>охотиться</t>
+  </si>
+  <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>охота, добыча</t>
+  </si>
+  <si>
+    <t>get on your soapbox</t>
+  </si>
+  <si>
+    <t>внезапно произнести свою речь, импровизировать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detergent </t>
+  </si>
+  <si>
+    <t>моющее стредство, порошок</t>
+  </si>
+  <si>
+    <t>endurance</t>
+  </si>
+  <si>
+    <t>выносливость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenery </t>
+  </si>
+  <si>
+    <t>пейзаж</t>
   </si>
 </sst>
 </file>
@@ -858,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C89"/>
+  <dimension ref="B3:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,106 +1684,106 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -1395,159 +1791,159 @@
         <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
@@ -1555,15 +1951,559 @@
         <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>231</v>
+      </c>
+      <c r="C120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>251</v>
+      </c>
+      <c r="C131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>257</v>
+      </c>
+      <c r="C134" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>261</v>
+      </c>
+      <c r="C136" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C137" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>265</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>268</v>
+      </c>
+      <c r="C140" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>270</v>
+      </c>
+      <c r="C141" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>272</v>
+      </c>
+      <c r="C142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>274</v>
+      </c>
+      <c r="C143" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>276</v>
+      </c>
+      <c r="C144" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>278</v>
+      </c>
+      <c r="C145" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>279</v>
+      </c>
+      <c r="C146" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>282</v>
+      </c>
+      <c r="C147" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>290</v>
+      </c>
+      <c r="C151" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>294</v>
+      </c>
+      <c r="C153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>296</v>
+      </c>
+      <c r="C154" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>298</v>
+      </c>
+      <c r="C155" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>300</v>
+      </c>
+      <c r="C156" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>302</v>
+      </c>
+      <c r="C157" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/data/reword.xlsx
+++ b/data/reword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PythonProjects\MicroProjects\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PythonProjects\Projects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2232F63D-5ADF-4E79-B759-C00521222194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561E82FF-ABB5-47DD-89AA-FDE4C304A90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="630" windowWidth="14280" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7125" yWindow="4530" windowWidth="14280" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="392">
   <si>
     <t>English</t>
   </si>
@@ -937,6 +937,270 @@
   </si>
   <si>
     <t>пейзаж</t>
+  </si>
+  <si>
+    <t>short of</t>
+  </si>
+  <si>
+    <t>нехватка</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>jealous of</t>
+  </si>
+  <si>
+    <t>завидовать, ревновать</t>
+  </si>
+  <si>
+    <t>to be acquainted with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">знаком с </t>
+  </si>
+  <si>
+    <t>in a hurry</t>
+  </si>
+  <si>
+    <t>торопится, спешить</t>
+  </si>
+  <si>
+    <t>on strike</t>
+  </si>
+  <si>
+    <t>на забастовке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take something for granted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">принимать как должное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in vain </t>
+  </si>
+  <si>
+    <t>напрасно</t>
+  </si>
+  <si>
+    <t>to put/say shortly/briefly</t>
+  </si>
+  <si>
+    <t>коротко говоря</t>
+  </si>
+  <si>
+    <t>to put mildly</t>
+  </si>
+  <si>
+    <t>мягко говоря</t>
+  </si>
+  <si>
+    <t>to put it bluntly</t>
+  </si>
+  <si>
+    <t>грубо говоря</t>
+  </si>
+  <si>
+    <t>at least</t>
+  </si>
+  <si>
+    <t>по крайней мере</t>
+  </si>
+  <si>
+    <t>to cut a long story short</t>
+  </si>
+  <si>
+    <t>если коротко, вкратце, в двух словах</t>
+  </si>
+  <si>
+    <t>on the contrary</t>
+  </si>
+  <si>
+    <t>наоборот, напротив, с другой стороны</t>
+  </si>
+  <si>
+    <t>to be srank/honest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">быть честным </t>
+  </si>
+  <si>
+    <t>It goes without saying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">само собой разумеется </t>
+  </si>
+  <si>
+    <t>leave up to some expectations</t>
+  </si>
+  <si>
+    <t>оправдать ожидания</t>
+  </si>
+  <si>
+    <t>to bear fruit</t>
+  </si>
+  <si>
+    <t>пожинать плоды, приносить плоды</t>
+  </si>
+  <si>
+    <t>eternity</t>
+  </si>
+  <si>
+    <t>вечность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to the best of my knowledge </t>
+  </si>
+  <si>
+    <t>насколько мне известно</t>
+  </si>
+  <si>
+    <t>don't have to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет необходимости </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrogant </t>
+  </si>
+  <si>
+    <t>высокомерный</t>
+  </si>
+  <si>
+    <t>to be allowed</t>
+  </si>
+  <si>
+    <t>разрешено</t>
+  </si>
+  <si>
+    <t>oligarch</t>
+  </si>
+  <si>
+    <t>олигарх</t>
+  </si>
+  <si>
+    <t>I were/was you</t>
+  </si>
+  <si>
+    <t>если бы я был на твоём месте</t>
+  </si>
+  <si>
+    <t>It's time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пора </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's high time </t>
+  </si>
+  <si>
+    <t>давно пора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disgusting </t>
+  </si>
+  <si>
+    <t>отвратительный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathtaking </t>
+  </si>
+  <si>
+    <t>niche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ниша </t>
+  </si>
+  <si>
+    <t>utterly</t>
+  </si>
+  <si>
+    <t>совершенно, абсолютно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illegible </t>
+  </si>
+  <si>
+    <t>неразборчивый</t>
+  </si>
+  <si>
+    <t>handwriting</t>
+  </si>
+  <si>
+    <t>почерк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illiterate </t>
+  </si>
+  <si>
+    <t>неграмотный</t>
+  </si>
+  <si>
+    <t>take up</t>
+  </si>
+  <si>
+    <t>начать заниматься</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not help admiring </t>
+  </si>
+  <si>
+    <t>не могу не восхищаться</t>
+  </si>
+  <si>
+    <t>look forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ждать с нетерпением </t>
+  </si>
+  <si>
+    <t>get/to be use to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrangement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">расположение </t>
+  </si>
+  <si>
+    <t xml:space="preserve">redecorated </t>
+  </si>
+  <si>
+    <t>косметический ремонт</t>
+  </si>
+  <si>
+    <t>there is no point in</t>
+  </si>
+  <si>
+    <t>бесполезно делать…</t>
+  </si>
+  <si>
+    <t>live up to</t>
+  </si>
+  <si>
+    <t>оправдлать (ожидания)</t>
+  </si>
+  <si>
+    <t>on no condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ни при каком условии </t>
+  </si>
+  <si>
+    <t>hardly had … when</t>
+  </si>
+  <si>
+    <t>как только</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No sooner … then </t>
+  </si>
+  <si>
+    <t>throughly enjoy</t>
+  </si>
+  <si>
+    <t>в полном восторге</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C157"/>
+  <dimension ref="B3:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,6 +2770,374 @@
         <v>303</v>
       </c>
     </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>304</v>
+      </c>
+      <c r="C158" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>306</v>
+      </c>
+      <c r="C159" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>307</v>
+      </c>
+      <c r="C160" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>309</v>
+      </c>
+      <c r="C161" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>311</v>
+      </c>
+      <c r="C162" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>313</v>
+      </c>
+      <c r="C163" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>315</v>
+      </c>
+      <c r="C164" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>317</v>
+      </c>
+      <c r="C165" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>319</v>
+      </c>
+      <c r="C166" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>321</v>
+      </c>
+      <c r="C167" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>323</v>
+      </c>
+      <c r="C168" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>325</v>
+      </c>
+      <c r="C169" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>327</v>
+      </c>
+      <c r="C170" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>329</v>
+      </c>
+      <c r="C171" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>331</v>
+      </c>
+      <c r="C172" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>333</v>
+      </c>
+      <c r="C173" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>335</v>
+      </c>
+      <c r="C174" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>337</v>
+      </c>
+      <c r="C175" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>339</v>
+      </c>
+      <c r="C176" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>341</v>
+      </c>
+      <c r="C177" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>347</v>
+      </c>
+      <c r="C180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>349</v>
+      </c>
+      <c r="C181" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>351</v>
+      </c>
+      <c r="C182" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>353</v>
+      </c>
+      <c r="C183" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>355</v>
+      </c>
+      <c r="C184" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>357</v>
+      </c>
+      <c r="C185" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>360</v>
+      </c>
+      <c r="C187" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>362</v>
+      </c>
+      <c r="C188" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>364</v>
+      </c>
+      <c r="C189" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>366</v>
+      </c>
+      <c r="C190" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>368</v>
+      </c>
+      <c r="C191" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>370</v>
+      </c>
+      <c r="C192" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>372</v>
+      </c>
+      <c r="C193" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>374</v>
+      </c>
+      <c r="C194" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>376</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>377</v>
+      </c>
+      <c r="C196" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>379</v>
+      </c>
+      <c r="C197" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>381</v>
+      </c>
+      <c r="C198" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>383</v>
+      </c>
+      <c r="C199" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>385</v>
+      </c>
+      <c r="C200" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>387</v>
+      </c>
+      <c r="C201" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>389</v>
+      </c>
+      <c r="C202" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>390</v>
+      </c>
+      <c r="C203" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/reword.xlsx
+++ b/data/reword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PythonProjects\Projects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561E82FF-ABB5-47DD-89AA-FDE4C304A90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32553461-7893-4BB4-A003-ABF65BFC670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7125" yWindow="4530" windowWidth="14280" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="480">
   <si>
     <t>English</t>
   </si>
@@ -1201,6 +1201,270 @@
   </si>
   <si>
     <t>в полном восторге</t>
+  </si>
+  <si>
+    <t>no point in</t>
+  </si>
+  <si>
+    <t>нет смысла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write down </t>
+  </si>
+  <si>
+    <t>записать</t>
+  </si>
+  <si>
+    <t>in a minute</t>
+  </si>
+  <si>
+    <t>через минуту</t>
+  </si>
+  <si>
+    <t>get along well</t>
+  </si>
+  <si>
+    <t>хорошо ладить</t>
+  </si>
+  <si>
+    <t>roommates</t>
+  </si>
+  <si>
+    <t>соседи по комнате</t>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>надевать</t>
+  </si>
+  <si>
+    <t>take off</t>
+  </si>
+  <si>
+    <t>снимать</t>
+  </si>
+  <si>
+    <t>get out</t>
+  </si>
+  <si>
+    <t>уходи, убирайся</t>
+  </si>
+  <si>
+    <t>bring up</t>
+  </si>
+  <si>
+    <t>воспитать</t>
+  </si>
+  <si>
+    <t>carry on</t>
+  </si>
+  <si>
+    <t>продолжить</t>
+  </si>
+  <si>
+    <t>carry out</t>
+  </si>
+  <si>
+    <t>осуществлять</t>
+  </si>
+  <si>
+    <t>заботиться, присмотреть</t>
+  </si>
+  <si>
+    <t>look after</t>
+  </si>
+  <si>
+    <t>напоминать, быть похожим</t>
+  </si>
+  <si>
+    <t>flick through</t>
+  </si>
+  <si>
+    <t>пролистать (страницы)</t>
+  </si>
+  <si>
+    <t>save up</t>
+  </si>
+  <si>
+    <t>сэкономить, сохранить деньги</t>
+  </si>
+  <si>
+    <t>bump into</t>
+  </si>
+  <si>
+    <t>столкнуться, натолкнуться на, встретиться</t>
+  </si>
+  <si>
+    <t>fall behind</t>
+  </si>
+  <si>
+    <t>отставать</t>
+  </si>
+  <si>
+    <t>show off</t>
+  </si>
+  <si>
+    <t>показать</t>
+  </si>
+  <si>
+    <t>show up</t>
+  </si>
+  <si>
+    <t>появиться</t>
+  </si>
+  <si>
+    <t>turn up</t>
+  </si>
+  <si>
+    <t>появиться неожиданно</t>
+  </si>
+  <si>
+    <t>to deceive</t>
+  </si>
+  <si>
+    <t>обмануть</t>
+  </si>
+  <si>
+    <t>see off</t>
+  </si>
+  <si>
+    <t>проводить</t>
+  </si>
+  <si>
+    <t>read out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зачитать, прочесть вслух </t>
+  </si>
+  <si>
+    <t>drop in</t>
+  </si>
+  <si>
+    <t>зайти на короткое время</t>
+  </si>
+  <si>
+    <t>drop by</t>
+  </si>
+  <si>
+    <t>зайти</t>
+  </si>
+  <si>
+    <t>sort out</t>
+  </si>
+  <si>
+    <t>решить проблему, разобраться</t>
+  </si>
+  <si>
+    <t>iron out</t>
+  </si>
+  <si>
+    <t>сгладить, уладить</t>
+  </si>
+  <si>
+    <t>nod off</t>
+  </si>
+  <si>
+    <t>doze off</t>
+  </si>
+  <si>
+    <t>дремать</t>
+  </si>
+  <si>
+    <t>заснуть</t>
+  </si>
+  <si>
+    <t>cheer up</t>
+  </si>
+  <si>
+    <t>взбодрись</t>
+  </si>
+  <si>
+    <t>use up</t>
+  </si>
+  <si>
+    <t>израсходовать</t>
+  </si>
+  <si>
+    <t>do about</t>
+  </si>
+  <si>
+    <t>делать с, поделать</t>
+  </si>
+  <si>
+    <t>hold back</t>
+  </si>
+  <si>
+    <t>сдерживать, удерживать</t>
+  </si>
+  <si>
+    <t>put aside</t>
+  </si>
+  <si>
+    <t>отложить</t>
+  </si>
+  <si>
+    <t>cross out</t>
+  </si>
+  <si>
+    <t>вычеркнуть, зачеркнуть</t>
+  </si>
+  <si>
+    <t>pay off</t>
+  </si>
+  <si>
+    <t>окупиться</t>
+  </si>
+  <si>
+    <t>drop out</t>
+  </si>
+  <si>
+    <t>выпадать, отказаться, бросить(уник)</t>
+  </si>
+  <si>
+    <t>bear fruit</t>
+  </si>
+  <si>
+    <t>приносить плоды, плордоносить</t>
+  </si>
+  <si>
+    <t>cool down</t>
+  </si>
+  <si>
+    <t>остыть</t>
+  </si>
+  <si>
+    <t>rid off</t>
+  </si>
+  <si>
+    <t>act up</t>
+  </si>
+  <si>
+    <t>капризничать</t>
+  </si>
+  <si>
+    <t>bail out</t>
+  </si>
+  <si>
+    <t>выручить, спасти финансово</t>
+  </si>
+  <si>
+    <t>stand out</t>
+  </si>
+  <si>
+    <t>выделяться (из толпы)</t>
+  </si>
+  <si>
+    <t>ask out</t>
+  </si>
+  <si>
+    <t>пригласить на свидание</t>
+  </si>
+  <si>
+    <t>die down</t>
+  </si>
+  <si>
+    <t>утихать</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C203"/>
+  <dimension ref="B3:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,6 +3402,366 @@
         <v>391</v>
       </c>
     </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>392</v>
+      </c>
+      <c r="C204" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>394</v>
+      </c>
+      <c r="C205" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>396</v>
+      </c>
+      <c r="C206" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>398</v>
+      </c>
+      <c r="C207" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>400</v>
+      </c>
+      <c r="C208" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>402</v>
+      </c>
+      <c r="C209" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>404</v>
+      </c>
+      <c r="C210" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>406</v>
+      </c>
+      <c r="C211" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>408</v>
+      </c>
+      <c r="C212" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>410</v>
+      </c>
+      <c r="C213" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>412</v>
+      </c>
+      <c r="C214" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>415</v>
+      </c>
+      <c r="C215" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>237</v>
+      </c>
+      <c r="C216" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>417</v>
+      </c>
+      <c r="C217" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>419</v>
+      </c>
+      <c r="C218" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>421</v>
+      </c>
+      <c r="C219" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>423</v>
+      </c>
+      <c r="C220" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>425</v>
+      </c>
+      <c r="C221" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>427</v>
+      </c>
+      <c r="C222" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>429</v>
+      </c>
+      <c r="C223" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>431</v>
+      </c>
+      <c r="C224" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>433</v>
+      </c>
+      <c r="C225" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>435</v>
+      </c>
+      <c r="C226" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>437</v>
+      </c>
+      <c r="C227" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>439</v>
+      </c>
+      <c r="C228" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>441</v>
+      </c>
+      <c r="C229" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>443</v>
+      </c>
+      <c r="C230" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>445</v>
+      </c>
+      <c r="C231" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>446</v>
+      </c>
+      <c r="C232" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>449</v>
+      </c>
+      <c r="C233" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>451</v>
+      </c>
+      <c r="C234" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>453</v>
+      </c>
+      <c r="C235" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>455</v>
+      </c>
+      <c r="C236" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>457</v>
+      </c>
+      <c r="C237" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>459</v>
+      </c>
+      <c r="C238" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>461</v>
+      </c>
+      <c r="C239" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>463</v>
+      </c>
+      <c r="C240" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>465</v>
+      </c>
+      <c r="C241" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>467</v>
+      </c>
+      <c r="C242" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>469</v>
+      </c>
+      <c r="C243" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>470</v>
+      </c>
+      <c r="C244" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>472</v>
+      </c>
+      <c r="C245" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>474</v>
+      </c>
+      <c r="C246" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>476</v>
+      </c>
+      <c r="C247" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>478</v>
+      </c>
+      <c r="C248" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/reword.xlsx
+++ b/data/reword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PythonProjects\Projects\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\MicroProjects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32553461-7893-4BB4-A003-ABF65BFC670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055676DF-A2CC-4D11-B379-56830602C7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="572">
   <si>
     <t>English</t>
   </si>
@@ -1465,6 +1465,282 @@
   </si>
   <si>
     <t>утихать</t>
+  </si>
+  <si>
+    <t>boil down to</t>
+  </si>
+  <si>
+    <t>совдиться к</t>
+  </si>
+  <si>
+    <t>own up to</t>
+  </si>
+  <si>
+    <t>владеть, признаться</t>
+  </si>
+  <si>
+    <t>fall for</t>
+  </si>
+  <si>
+    <t>влюбиться</t>
+  </si>
+  <si>
+    <t>ask around</t>
+  </si>
+  <si>
+    <t>спрашивать тут и там</t>
+  </si>
+  <si>
+    <t>wind up</t>
+  </si>
+  <si>
+    <t>оказаться (проблемой)</t>
+  </si>
+  <si>
+    <t>wind down</t>
+  </si>
+  <si>
+    <t>расслабиться</t>
+  </si>
+  <si>
+    <t>tidy up</t>
+  </si>
+  <si>
+    <t>навести порядок</t>
+  </si>
+  <si>
+    <t>take apart</t>
+  </si>
+  <si>
+    <t>разобрать на части</t>
+  </si>
+  <si>
+    <t>put together</t>
+  </si>
+  <si>
+    <t>собрать</t>
+  </si>
+  <si>
+    <t>pick at</t>
+  </si>
+  <si>
+    <t>придираться, цепляться</t>
+  </si>
+  <si>
+    <t>leap at</t>
+  </si>
+  <si>
+    <t>ухватиться</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>розетка</t>
+  </si>
+  <si>
+    <t>leave aside</t>
+  </si>
+  <si>
+    <t>оставить в стороне, не принимать во внимание</t>
+  </si>
+  <si>
+    <t>hang about</t>
+  </si>
+  <si>
+    <t>торчать, бездельничать</t>
+  </si>
+  <si>
+    <t>fool around</t>
+  </si>
+  <si>
+    <t>валять дурака, бездельничать</t>
+  </si>
+  <si>
+    <t>spark off</t>
+  </si>
+  <si>
+    <t>стать причиной, разжечь</t>
+  </si>
+  <si>
+    <t>jot down</t>
+  </si>
+  <si>
+    <t>быстро записать</t>
+  </si>
+  <si>
+    <t>churn out</t>
+  </si>
+  <si>
+    <t>выпускать, штамповать ( товар)</t>
+  </si>
+  <si>
+    <t>evasion</t>
+  </si>
+  <si>
+    <t>улконения</t>
+  </si>
+  <si>
+    <t>marksman</t>
+  </si>
+  <si>
+    <t>меткий стрелок, снайпер</t>
+  </si>
+  <si>
+    <t>plow</t>
+  </si>
+  <si>
+    <t>плуг, соха</t>
+  </si>
+  <si>
+    <t>hay</t>
+  </si>
+  <si>
+    <t>сено</t>
+  </si>
+  <si>
+    <t>to sprawl</t>
+  </si>
+  <si>
+    <t>разлечься, развалиться</t>
+  </si>
+  <si>
+    <t>spikes</t>
+  </si>
+  <si>
+    <t>шипы, пики</t>
+  </si>
+  <si>
+    <t>spikelets</t>
+  </si>
+  <si>
+    <t>колосья</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>граф, эрл, Ярл</t>
+  </si>
+  <si>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>трактир, гостиница</t>
+  </si>
+  <si>
+    <t>dagger</t>
+  </si>
+  <si>
+    <t>кинжал, нож</t>
+  </si>
+  <si>
+    <t>cowberry</t>
+  </si>
+  <si>
+    <t>брусника</t>
+  </si>
+  <si>
+    <t>tithe</t>
+  </si>
+  <si>
+    <t>десятина</t>
+  </si>
+  <si>
+    <t>flock</t>
+  </si>
+  <si>
+    <t>стадо, стая</t>
+  </si>
+  <si>
+    <t>mercenary</t>
+  </si>
+  <si>
+    <t>наёмник</t>
+  </si>
+  <si>
+    <t>sorcerer</t>
+  </si>
+  <si>
+    <t>колодун, маг</t>
+  </si>
+  <si>
+    <t>to stun</t>
+  </si>
+  <si>
+    <t>оглушить</t>
+  </si>
+  <si>
+    <t>broth</t>
+  </si>
+  <si>
+    <t>бульон, отвар, похлёбка</t>
+  </si>
+  <si>
+    <t>daredevil</t>
+  </si>
+  <si>
+    <t>сорвиголова, смельчак, лихач, каскадёр</t>
+  </si>
+  <si>
+    <t>to mumble</t>
+  </si>
+  <si>
+    <t>бормотать</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>жалкий</t>
+  </si>
+  <si>
+    <t>rumors</t>
+  </si>
+  <si>
+    <t>слухи</t>
+  </si>
+  <si>
+    <t>whirlpool</t>
+  </si>
+  <si>
+    <t>водоворот, омут</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>бес, чертёнок</t>
+  </si>
+  <si>
+    <t>pandemonium</t>
+  </si>
+  <si>
+    <t>столпотворение</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>достойный, заслуживающий</t>
+  </si>
+  <si>
+    <t>deranged</t>
+  </si>
+  <si>
+    <t>невменяемый, ненормальный, сумасшедший</t>
+  </si>
+  <si>
+    <t>sorrow</t>
+  </si>
+  <si>
+    <t>печаль, скорбь</t>
+  </si>
+  <si>
+    <t>abyss</t>
+  </si>
+  <si>
+    <t>бездна, пропасть, пучина, абиссаль</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1782,19 +2058,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C248"/>
+  <dimension ref="B3:C295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="121" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>98</v>
       </c>
@@ -1818,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>99</v>
       </c>
@@ -1826,7 +2102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1842,7 +2118,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +2126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -1858,7 +2134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +2142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +2150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>95</v>
       </c>
@@ -1882,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1890,7 +2166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +2174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +2182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +2190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1922,7 +2198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +2206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -1938,7 +2214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -1946,7 +2222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1954,7 +2230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1962,7 +2238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -1970,7 +2246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -1978,7 +2254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -1986,7 +2262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>41</v>
       </c>
@@ -1994,7 +2270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2002,7 +2278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -2010,7 +2286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -2018,7 +2294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>48</v>
       </c>
@@ -2026,7 +2302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>51</v>
       </c>
@@ -2034,7 +2310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>94</v>
       </c>
@@ -2042,7 +2318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>93</v>
       </c>
@@ -2050,7 +2326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>55</v>
       </c>
@@ -2058,7 +2334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>57</v>
       </c>
@@ -2066,7 +2342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>59</v>
       </c>
@@ -2074,7 +2350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -2082,7 +2358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>63</v>
       </c>
@@ -2090,7 +2366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>65</v>
       </c>
@@ -2098,7 +2374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>67</v>
       </c>
@@ -2106,7 +2382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>69</v>
       </c>
@@ -2114,7 +2390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>71</v>
       </c>
@@ -2122,7 +2398,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>73</v>
       </c>
@@ -2130,7 +2406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -2138,7 +2414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>92</v>
       </c>
@@ -2146,7 +2422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>90</v>
       </c>
@@ -2154,7 +2430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>89</v>
       </c>
@@ -2162,7 +2438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>88</v>
       </c>
@@ -2170,7 +2446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>80</v>
       </c>
@@ -2178,7 +2454,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>82</v>
       </c>
@@ -2186,7 +2462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>84</v>
       </c>
@@ -2194,7 +2470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>86</v>
       </c>
@@ -2202,7 +2478,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>100</v>
       </c>
@@ -2210,7 +2486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>103</v>
       </c>
@@ -2218,7 +2494,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>105</v>
       </c>
@@ -2226,7 +2502,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>107</v>
       </c>
@@ -2234,7 +2510,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>109</v>
       </c>
@@ -2242,7 +2518,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -2250,7 +2526,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>115</v>
       </c>
@@ -2258,7 +2534,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>113</v>
       </c>
@@ -2266,7 +2542,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>117</v>
       </c>
@@ -2274,7 +2550,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>119</v>
       </c>
@@ -2282,7 +2558,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>121</v>
       </c>
@@ -2290,7 +2566,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>123</v>
       </c>
@@ -2298,7 +2574,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>125</v>
       </c>
@@ -2306,7 +2582,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>127</v>
       </c>
@@ -2314,7 +2590,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>128</v>
       </c>
@@ -2322,7 +2598,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>136</v>
       </c>
@@ -2330,7 +2606,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>135</v>
       </c>
@@ -2338,7 +2614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>133</v>
       </c>
@@ -2346,7 +2622,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>140</v>
       </c>
@@ -2354,7 +2630,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>138</v>
       </c>
@@ -2362,7 +2638,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>141</v>
       </c>
@@ -2370,7 +2646,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>143</v>
       </c>
@@ -2378,7 +2654,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>145</v>
       </c>
@@ -2386,7 +2662,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>147</v>
       </c>
@@ -2394,7 +2670,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>149</v>
       </c>
@@ -2402,7 +2678,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>151</v>
       </c>
@@ -2410,7 +2686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>153</v>
       </c>
@@ -2418,7 +2694,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>155</v>
       </c>
@@ -2426,7 +2702,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>157</v>
       </c>
@@ -2434,7 +2710,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>159</v>
       </c>
@@ -2442,7 +2718,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>161</v>
       </c>
@@ -2450,7 +2726,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>163</v>
       </c>
@@ -2458,7 +2734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>165</v>
       </c>
@@ -2466,7 +2742,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>167</v>
       </c>
@@ -2474,7 +2750,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>168</v>
       </c>
@@ -2482,7 +2758,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>171</v>
       </c>
@@ -2490,7 +2766,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>173</v>
       </c>
@@ -2498,7 +2774,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>175</v>
       </c>
@@ -2506,7 +2782,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>178</v>
       </c>
@@ -2514,7 +2790,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>179</v>
       </c>
@@ -2522,7 +2798,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>181</v>
       </c>
@@ -2530,7 +2806,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>183</v>
       </c>
@@ -2538,7 +2814,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>185</v>
       </c>
@@ -2546,7 +2822,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>187</v>
       </c>
@@ -2554,7 +2830,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>189</v>
       </c>
@@ -2562,7 +2838,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>191</v>
       </c>
@@ -2570,7 +2846,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>192</v>
       </c>
@@ -2578,7 +2854,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>194</v>
       </c>
@@ -2586,7 +2862,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>196</v>
       </c>
@@ -2594,7 +2870,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>198</v>
       </c>
@@ -2602,7 +2878,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>200</v>
       </c>
@@ -2610,7 +2886,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>202</v>
       </c>
@@ -2618,7 +2894,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>204</v>
       </c>
@@ -2626,7 +2902,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>206</v>
       </c>
@@ -2634,7 +2910,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>208</v>
       </c>
@@ -2642,7 +2918,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>210</v>
       </c>
@@ -2650,7 +2926,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>212</v>
       </c>
@@ -2658,7 +2934,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>214</v>
       </c>
@@ -2666,7 +2942,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>216</v>
       </c>
@@ -2674,7 +2950,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>218</v>
       </c>
@@ -2682,7 +2958,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>220</v>
       </c>
@@ -2690,7 +2966,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>222</v>
       </c>
@@ -2698,7 +2974,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>224</v>
       </c>
@@ -2706,7 +2982,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>226</v>
       </c>
@@ -2714,7 +2990,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>227</v>
       </c>
@@ -2722,7 +2998,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>229</v>
       </c>
@@ -2730,7 +3006,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>231</v>
       </c>
@@ -2738,7 +3014,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>234</v>
       </c>
@@ -2746,7 +3022,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>235</v>
       </c>
@@ -2754,7 +3030,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>237</v>
       </c>
@@ -2762,7 +3038,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>239</v>
       </c>
@@ -2770,7 +3046,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>240</v>
       </c>
@@ -2778,7 +3054,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>18</v>
       </c>
@@ -2786,7 +3062,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>243</v>
       </c>
@@ -2794,7 +3070,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>245</v>
       </c>
@@ -2802,7 +3078,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>247</v>
       </c>
@@ -2810,7 +3086,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>249</v>
       </c>
@@ -2818,7 +3094,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>251</v>
       </c>
@@ -2826,7 +3102,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>253</v>
       </c>
@@ -2834,7 +3110,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>254</v>
       </c>
@@ -2842,7 +3118,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>257</v>
       </c>
@@ -2850,7 +3126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>259</v>
       </c>
@@ -2858,7 +3134,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>261</v>
       </c>
@@ -2866,7 +3142,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>263</v>
       </c>
@@ -2874,7 +3150,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>265</v>
       </c>
@@ -2882,7 +3158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>266</v>
       </c>
@@ -2890,7 +3166,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>268</v>
       </c>
@@ -2898,7 +3174,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>270</v>
       </c>
@@ -2906,7 +3182,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>272</v>
       </c>
@@ -2914,7 +3190,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>274</v>
       </c>
@@ -2922,7 +3198,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>276</v>
       </c>
@@ -2930,7 +3206,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>278</v>
       </c>
@@ -2938,7 +3214,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>279</v>
       </c>
@@ -2946,7 +3222,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>282</v>
       </c>
@@ -2954,7 +3230,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>284</v>
       </c>
@@ -2962,7 +3238,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>286</v>
       </c>
@@ -2970,7 +3246,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>288</v>
       </c>
@@ -2978,7 +3254,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>290</v>
       </c>
@@ -2986,7 +3262,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>292</v>
       </c>
@@ -2994,7 +3270,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>294</v>
       </c>
@@ -3002,7 +3278,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>296</v>
       </c>
@@ -3010,7 +3286,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>298</v>
       </c>
@@ -3018,7 +3294,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>300</v>
       </c>
@@ -3026,7 +3302,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>302</v>
       </c>
@@ -3034,7 +3310,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>304</v>
       </c>
@@ -3042,7 +3318,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>306</v>
       </c>
@@ -3050,7 +3326,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>307</v>
       </c>
@@ -3058,7 +3334,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>309</v>
       </c>
@@ -3066,7 +3342,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>311</v>
       </c>
@@ -3074,7 +3350,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>313</v>
       </c>
@@ -3082,7 +3358,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>315</v>
       </c>
@@ -3090,7 +3366,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>317</v>
       </c>
@@ -3098,7 +3374,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>319</v>
       </c>
@@ -3106,7 +3382,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>321</v>
       </c>
@@ -3114,7 +3390,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>323</v>
       </c>
@@ -3122,7 +3398,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>325</v>
       </c>
@@ -3130,7 +3406,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>327</v>
       </c>
@@ -3138,7 +3414,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>329</v>
       </c>
@@ -3146,7 +3422,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>331</v>
       </c>
@@ -3154,7 +3430,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>333</v>
       </c>
@@ -3162,7 +3438,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>335</v>
       </c>
@@ -3170,7 +3446,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>337</v>
       </c>
@@ -3178,7 +3454,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>339</v>
       </c>
@@ -3186,7 +3462,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>341</v>
       </c>
@@ -3194,7 +3470,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>343</v>
       </c>
@@ -3202,7 +3478,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>345</v>
       </c>
@@ -3210,7 +3486,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>347</v>
       </c>
@@ -3218,7 +3494,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>349</v>
       </c>
@@ -3226,7 +3502,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>351</v>
       </c>
@@ -3234,7 +3510,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>353</v>
       </c>
@@ -3242,7 +3518,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>355</v>
       </c>
@@ -3250,7 +3526,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>357</v>
       </c>
@@ -3258,7 +3534,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>359</v>
       </c>
@@ -3266,7 +3542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>360</v>
       </c>
@@ -3274,7 +3550,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>362</v>
       </c>
@@ -3282,7 +3558,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>364</v>
       </c>
@@ -3290,7 +3566,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>366</v>
       </c>
@@ -3298,7 +3574,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>368</v>
       </c>
@@ -3306,7 +3582,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>370</v>
       </c>
@@ -3314,7 +3590,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>372</v>
       </c>
@@ -3322,7 +3598,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>374</v>
       </c>
@@ -3330,7 +3606,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>376</v>
       </c>
@@ -3338,7 +3614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>377</v>
       </c>
@@ -3346,7 +3622,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>379</v>
       </c>
@@ -3354,7 +3630,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>381</v>
       </c>
@@ -3362,7 +3638,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>383</v>
       </c>
@@ -3370,7 +3646,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>385</v>
       </c>
@@ -3378,7 +3654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>387</v>
       </c>
@@ -3386,7 +3662,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>389</v>
       </c>
@@ -3394,7 +3670,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>390</v>
       </c>
@@ -3402,7 +3678,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>392</v>
       </c>
@@ -3410,7 +3686,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>394</v>
       </c>
@@ -3418,7 +3694,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>396</v>
       </c>
@@ -3426,7 +3702,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>398</v>
       </c>
@@ -3434,7 +3710,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>400</v>
       </c>
@@ -3442,7 +3718,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>402</v>
       </c>
@@ -3450,7 +3726,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>404</v>
       </c>
@@ -3458,7 +3734,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>406</v>
       </c>
@@ -3466,7 +3742,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>408</v>
       </c>
@@ -3474,7 +3750,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>410</v>
       </c>
@@ -3482,7 +3758,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>412</v>
       </c>
@@ -3490,7 +3766,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>415</v>
       </c>
@@ -3498,7 +3774,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>237</v>
       </c>
@@ -3506,7 +3782,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>417</v>
       </c>
@@ -3514,7 +3790,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>419</v>
       </c>
@@ -3522,7 +3798,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>421</v>
       </c>
@@ -3530,7 +3806,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>423</v>
       </c>
@@ -3538,7 +3814,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>425</v>
       </c>
@@ -3546,7 +3822,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>427</v>
       </c>
@@ -3554,7 +3830,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>429</v>
       </c>
@@ -3562,7 +3838,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>431</v>
       </c>
@@ -3570,7 +3846,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>433</v>
       </c>
@@ -3578,7 +3854,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>435</v>
       </c>
@@ -3586,7 +3862,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>437</v>
       </c>
@@ -3594,7 +3870,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>439</v>
       </c>
@@ -3602,7 +3878,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>441</v>
       </c>
@@ -3610,7 +3886,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>443</v>
       </c>
@@ -3618,7 +3894,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>445</v>
       </c>
@@ -3626,7 +3902,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>446</v>
       </c>
@@ -3634,7 +3910,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>449</v>
       </c>
@@ -3642,7 +3918,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>451</v>
       </c>
@@ -3650,7 +3926,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>453</v>
       </c>
@@ -3658,7 +3934,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>455</v>
       </c>
@@ -3666,7 +3942,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>457</v>
       </c>
@@ -3674,7 +3950,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>459</v>
       </c>
@@ -3682,7 +3958,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>461</v>
       </c>
@@ -3690,7 +3966,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>463</v>
       </c>
@@ -3698,7 +3974,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>465</v>
       </c>
@@ -3706,7 +3982,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>467</v>
       </c>
@@ -3714,7 +3990,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>469</v>
       </c>
@@ -3722,7 +3998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>470</v>
       </c>
@@ -3730,7 +4006,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>472</v>
       </c>
@@ -3738,7 +4014,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>474</v>
       </c>
@@ -3746,7 +4022,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>476</v>
       </c>
@@ -3754,12 +4030,388 @@
         <v>477</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>478</v>
       </c>
       <c r="C248" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>480</v>
+      </c>
+      <c r="C249" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>482</v>
+      </c>
+      <c r="C250" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>484</v>
+      </c>
+      <c r="C251" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>486</v>
+      </c>
+      <c r="C252" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>488</v>
+      </c>
+      <c r="C253" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>490</v>
+      </c>
+      <c r="C254" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>492</v>
+      </c>
+      <c r="C255" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>494</v>
+      </c>
+      <c r="C256" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>496</v>
+      </c>
+      <c r="C257" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>240</v>
+      </c>
+      <c r="C258" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>498</v>
+      </c>
+      <c r="C259" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>500</v>
+      </c>
+      <c r="C260" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>502</v>
+      </c>
+      <c r="C261" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>504</v>
+      </c>
+      <c r="C262" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>506</v>
+      </c>
+      <c r="C263" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>508</v>
+      </c>
+      <c r="C264" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>510</v>
+      </c>
+      <c r="C265" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>512</v>
+      </c>
+      <c r="C266" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>514</v>
+      </c>
+      <c r="C267" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>516</v>
+      </c>
+      <c r="C268" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>518</v>
+      </c>
+      <c r="C269" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>520</v>
+      </c>
+      <c r="C270" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>522</v>
+      </c>
+      <c r="C271" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>524</v>
+      </c>
+      <c r="C272" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>526</v>
+      </c>
+      <c r="C273" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>528</v>
+      </c>
+      <c r="C274" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>530</v>
+      </c>
+      <c r="C275" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>532</v>
+      </c>
+      <c r="C276" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>534</v>
+      </c>
+      <c r="C277" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>536</v>
+      </c>
+      <c r="C278" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>538</v>
+      </c>
+      <c r="C279" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>540</v>
+      </c>
+      <c r="C280" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>542</v>
+      </c>
+      <c r="C281" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>544</v>
+      </c>
+      <c r="C282" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>546</v>
+      </c>
+      <c r="C283" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>548</v>
+      </c>
+      <c r="C284" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>550</v>
+      </c>
+      <c r="C285" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>552</v>
+      </c>
+      <c r="C286" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>554</v>
+      </c>
+      <c r="C287" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>556</v>
+      </c>
+      <c r="C288" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>558</v>
+      </c>
+      <c r="C289" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>560</v>
+      </c>
+      <c r="C290" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>562</v>
+      </c>
+      <c r="C291" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>564</v>
+      </c>
+      <c r="C292" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>566</v>
+      </c>
+      <c r="C293" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>568</v>
+      </c>
+      <c r="C294" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>570</v>
+      </c>
+      <c r="C295" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
